--- a/DMS/Templates/Kpi_Item.xlsx
+++ b/DMS/Templates/Kpi_Item.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tai lieu du an\Rang Dong\DMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDAB71-3101-4DCB-B8D4-23DCAF10D348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Năm</t>
   </si>
@@ -43,9 +44,6 @@
     <t>Tên nhân viên</t>
   </si>
   <si>
-    <t>{Mã NV- Tên nhân viên}</t>
-  </si>
-  <si>
     <t>{Mã NV}</t>
   </si>
   <si>
@@ -55,9 +53,6 @@
     <t>Sản lượng</t>
   </si>
   <si>
-    <t>Doanh số</t>
-  </si>
-  <si>
     <t>Số đơn hàng</t>
   </si>
   <si>
@@ -71,9 +66,6 @@
   </si>
   <si>
     <t>Tên sản phẩm</t>
-  </si>
-  <si>
-    <t>END - Vui lòng insert các mã sản phẩm vào theo từng nhân viên</t>
   </si>
   <si>
     <r>
@@ -114,11 +106,20 @@
 + Kết thúc ở dòng END</t>
     </r>
   </si>
+  <si>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>Vui lòng insert các mã sản phẩm vào theo từng nhân viên</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,14 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -540,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -548,8 +549,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
@@ -565,26 +566,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -593,7 +596,7 @@
     </row>
     <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="8" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -645,19 +648,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C4"/>
+  <autoFilter ref="A4:C4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Tháng 1, Tháng 2, Tháng 3, Tháng 4, Tháng 5, Tháng 6, Tháng 7, Tháng 8, Tháng 9, Tháng 10, Tháng 11, Tháng 12, Quý 1, Quý 2, Quý 3, Quý 4, Năm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -666,7 +672,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'San pham'!$B$2:$B$20</xm:f>
           </x14:formula1>
@@ -679,7 +685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -694,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -808,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Kpi_Item.xlsx
+++ b/DMS/Templates/Kpi_Item.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDAB71-3101-4DCB-B8D4-23DCAF10D348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556F65F-2EDB-41D6-A23E-E5B44A9A1017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
+    <sheet name="KPI san pham" sheetId="1" r:id="rId1"/>
     <sheet name="San pham" sheetId="3" r:id="rId2"/>
     <sheet name="Quy tắc import" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'KPI nhân viên'!$A$4:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'KPI san pham'!$A$4:$C$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/DMS/Templates/Kpi_Item.xlsx
+++ b/DMS/Templates/Kpi_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556F65F-2EDB-41D6-A23E-E5B44A9A1017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2BAB0D-1A7D-4121-ACAF-4C99C32AA213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Năm</t>
   </si>
@@ -48,15 +48,6 @@
   </si>
   <si>
     <t>THIẾT LẬP KPI SẢN PHẨM TRỌNG TÂM</t>
-  </si>
-  <si>
-    <t>Sản lượng</t>
-  </si>
-  <si>
-    <t>Số đơn hàng</t>
-  </si>
-  <si>
-    <t>Số đại lý</t>
   </si>
   <si>
     <t>Mã sản phẩm</t>
@@ -107,13 +98,34 @@
     </r>
   </si>
   <si>
-    <t>Doanh thu</t>
-  </si>
-  <si>
     <t>Vui lòng insert các mã sản phẩm vào theo từng nhân viên</t>
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>Sản lượng theo đơn gián tiếp</t>
+  </si>
+  <si>
+    <t>Doanh thu theo đơn gián tiếp</t>
+  </si>
+  <si>
+    <t>Số đơn hàng theo đơn gián tiếp</t>
+  </si>
+  <si>
+    <t>Số đại lý theo đơn gián tiếp</t>
+  </si>
+  <si>
+    <t>Sản lượng theo đơn trực tiếp</t>
+  </si>
+  <si>
+    <t>Doanh thu theo đơn trực tiếp</t>
+  </si>
+  <si>
+    <t>Số đơn hàng theo đơn trực tiếp</t>
+  </si>
+  <si>
+    <t>Số đại lý theo đơn trực tiếp</t>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -537,9 +549,12 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
@@ -548,9 +563,9 @@
       <c r="F1" s="14"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
@@ -558,7 +573,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -566,22 +581,34 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -593,8 +620,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -607,7 +638,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -620,7 +651,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -633,7 +664,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -646,12 +677,12 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +731,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Kpi_Item.xlsx
+++ b/DMS/Templates/Kpi_Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2BAB0D-1A7D-4121-ACAF-4C99C32AA213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDF10B1-2630-4C2C-906A-4708310A24A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI san pham" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Năm</t>
   </si>
   <si>
-    <t>{Tên nhân viên}</t>
-  </si>
-  <si>
     <t>Mã nhân viên</t>
   </si>
   <si>
     <t>Tên nhân viên</t>
-  </si>
-  <si>
-    <t>{Mã NV}</t>
   </si>
   <si>
     <t>THIẾT LẬP KPI SẢN PHẨM TRỌNG TÂM</t>
@@ -126,6 +120,18 @@
   </si>
   <si>
     <t>Số đại lý theo đơn trực tiếp</t>
+  </si>
+  <si>
+    <t>{{KpiItems.Username}}</t>
+  </si>
+  <si>
+    <t>{{KpiItems.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{Items.Code}}</t>
+  </si>
+  <si>
+    <t>{{Items.Name}}</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -556,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -565,7 +571,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
@@ -575,45 +581,45 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -627,10 +633,10 @@
     </row>
     <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="7"/>
@@ -638,51 +644,12 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +674,7 @@
           <x14:formula1>
             <xm:f>'San pham'!$B$2:$B$20</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:C9</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -719,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,15 +698,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -845,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Kpi_Item.xlsx
+++ b/DMS/Templates/Kpi_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDF10B1-2630-4C2C-906A-4708310A24A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C0581-589A-4126-8AC1-5D2E78AD77C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI san pham" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,6 +230,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -238,7 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -259,6 +267,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -561,75 +572,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -639,10 +650,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -654,8 +665,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:C4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -686,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -697,104 +709,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,7 +827,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DMS/Templates/Kpi_Item.xlsx
+++ b/DMS/Templates/Kpi_Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C0581-589A-4126-8AC1-5D2E78AD77C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EE84CA-41E1-4C91-AEA8-5A7D83161784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -654,6 +654,10 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
